--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Module:</t>
   </si>
@@ -78,9 +78,6 @@
     <t>error on invalid options</t>
   </si>
   <si>
-    <t>false on empty configFile</t>
-  </si>
-  <si>
     <t>precondition</t>
   </si>
   <si>
@@ -93,18 +90,9 @@
     <t>mock up cmd line args</t>
   </si>
   <si>
-    <t>parameter does not exist</t>
-  </si>
-  <si>
     <t>create row in table</t>
   </si>
   <si>
-    <t>parameter does exist</t>
-  </si>
-  <si>
-    <t>update row</t>
-  </si>
-  <si>
     <t>getHomePath</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>video_file_path</t>
-  </si>
-  <si>
     <t>is_video_from_cam</t>
   </si>
   <si>
@@ -247,6 +232,36 @@
   </si>
   <si>
     <t>status: not implemented</t>
+  </si>
+  <si>
+    <t>Config::adjustFrameSizeDependentParams</t>
+  </si>
+  <si>
+    <t>cfg003</t>
+  </si>
+  <si>
+    <t>cfg004</t>
+  </si>
+  <si>
+    <t>save and read back</t>
+  </si>
+  <si>
+    <t>cfg005</t>
+  </si>
+  <si>
+    <t>false on empty or non-existent configFile</t>
+  </si>
+  <si>
+    <t>4:3 aspect ratio</t>
+  </si>
+  <si>
+    <t>adjust roi, count_pos, etc.</t>
+  </si>
+  <si>
+    <t>video_file</t>
+  </si>
+  <si>
+    <t>inset_height</t>
   </si>
 </sst>
 </file>
@@ -631,16 +646,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
@@ -655,15 +673,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -675,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -683,164 +701,176 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -851,10 +881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,128 +894,133 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="test cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>Module:</t>
   </si>
@@ -234,9 +234,6 @@
     <t>status: not implemented</t>
   </si>
   <si>
-    <t>Config::adjustFrameSizeDependentParams</t>
-  </si>
-  <si>
     <t>cfg003</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>save and read back</t>
   </si>
   <si>
-    <t>cfg005</t>
-  </si>
-  <si>
     <t>false on empty or non-existent configFile</t>
   </si>
   <si>
@@ -262,6 +256,36 @@
   </si>
   <si>
     <t>inset_height</t>
+  </si>
+  <si>
+    <t>frm001</t>
+  </si>
+  <si>
+    <t>FrameHandler::adjustFrameSizeDependentParams</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>[Config]</t>
+  </si>
+  <si>
+    <t>[Frame]</t>
+  </si>
+  <si>
+    <t>frm002</t>
+  </si>
+  <si>
+    <t>frm003</t>
+  </si>
+  <si>
+    <t>frm004</t>
+  </si>
+  <si>
+    <t>initCam, initFileReader, getFrameSize</t>
+  </si>
+  <si>
+    <t>locateVideoFilePath</t>
   </si>
 </sst>
 </file>
@@ -646,230 +670,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="E40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D44" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
@@ -883,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -910,7 +988,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,7 +1023,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
